--- a/Project/MySQLScriptFiles/DataDictionary.xlsx
+++ b/Project/MySQLScriptFiles/DataDictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b394122adb049e3/Documents/GitHub/F-ToPayRespects/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b394122adb049e3/Documents/GitHub/F-ToPayRespects/Project/MySQLScriptFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{EDA049CA-D783-48F1-83CC-B5BF6B548391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAE13271-170E-4502-B6FB-9C1183DC125F}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="8_{EDA049CA-D783-48F1-83CC-B5BF6B548391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9331AC42-D3D7-471C-ACCC-E589640E8212}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D86038A9-B992-4C48-8096-E6A2D3270A47}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="109">
   <si>
     <t>ELEMENT NAME</t>
   </si>
@@ -323,6 +322,45 @@
   </si>
   <si>
     <t>graphic name</t>
+  </si>
+  <si>
+    <t>Table: Employee</t>
+  </si>
+  <si>
+    <t>EmpId</t>
+  </si>
+  <si>
+    <t>emp key</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>account table</t>
+  </si>
+  <si>
+    <t>user key, if applicable</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>employee name</t>
+  </si>
+  <si>
+    <t>login password</t>
+  </si>
+  <si>
+    <t>Table: Admin</t>
+  </si>
+  <si>
+    <t>AdminId</t>
+  </si>
+  <si>
+    <t>admin key</t>
+  </si>
+  <si>
+    <t>employee table</t>
   </si>
 </sst>
 </file>
@@ -701,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE3FE46-FFD0-4867-AB34-F81F0E6A6774}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,6 +1887,278 @@
         <v>92</v>
       </c>
     </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="2">
+        <v>6</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="2">
+        <v>15</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="2">
+        <v>15</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="2">
+        <v>6</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="2">
+        <v>6</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80" s="2">
+        <v>15</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" s="2">
+        <v>15</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
